--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84174.42999999999</v>
+        <v>84177.5</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84231.3</v>
+        <v>84229.66</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84274.3</v>
+        <v>84286.89</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84296.05</v>
+        <v>84287.46000000001</v>
       </c>
     </row>
     <row r="16">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84359.67</v>
+        <v>84364.16</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84106.12</v>
+        <v>84110.81</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84128.85000000001</v>
+        <v>84132.23</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>84001.81</v>
+        <v>83996.59</v>
       </c>
     </row>
     <row r="52">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>85016.38</v>
+        <v>85014.39</v>
       </c>
     </row>
     <row r="90">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>86008.27</v>
+        <v>86129.77</v>
       </c>
     </row>
     <row r="100">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>85956.24000000001</v>
+        <v>85920.72</v>
       </c>
     </row>
     <row r="104">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>87699.48</v>
+        <v>87684.48</v>
       </c>
     </row>
     <row r="122">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>87398.42999999999</v>
+        <v>87392.25</v>
       </c>
     </row>
     <row r="144">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>86696.52</v>
+        <v>86741.47</v>
       </c>
     </row>
     <row r="158">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>87625.77</v>
+        <v>87660.52</v>
       </c>
     </row>
     <row r="174">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>87597.96000000001</v>
+        <v>87611.24000000001</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>87677.73</v>
+        <v>87686.05</v>
       </c>
     </row>
     <row r="196">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>87921.60000000001</v>
+        <v>87915.58</v>
       </c>
     </row>
     <row r="208">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>87992.78</v>
+        <v>87957.48</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>87997.11</v>
+        <v>87988.7</v>
       </c>
     </row>
     <row r="213">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>86828.59</v>
+        <v>86772.38</v>
       </c>
     </row>
     <row r="224">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>87433.00999999999</v>
+        <v>87421.8</v>
       </c>
     </row>
     <row r="253">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>87408.37</v>
+        <v>87395.34</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>87444.66</v>
+        <v>87443.08</v>
       </c>
     </row>
     <row r="260">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>86730.03</v>
+        <v>86747.02</v>
       </c>
     </row>
     <row r="299">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>85212.05</v>
+        <v>85208.87</v>
       </c>
     </row>
     <row r="308">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>83668.3</v>
+        <v>83688.98</v>
       </c>
     </row>
     <row r="351">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>82479.49000000001</v>
+        <v>82508.16</v>
       </c>
     </row>
     <row r="367">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>82395.05</v>
+        <v>82394.21000000001</v>
       </c>
     </row>
     <row r="383">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>82441.77</v>
+        <v>82455.46000000001</v>
       </c>
     </row>
     <row r="385">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>83164.94</v>
+        <v>83161.28</v>
       </c>
     </row>
     <row r="397">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>82528.14</v>
+        <v>82551.71000000001</v>
       </c>
     </row>
     <row r="426">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>82247.3</v>
+        <v>82234.74000000001</v>
       </c>
     </row>
     <row r="445">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>83719.77</v>
+        <v>83729.82000000001</v>
       </c>
     </row>
     <row r="465">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>82683.5</v>
+        <v>82729.67</v>
       </c>
     </row>
     <row r="483">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>85159.95</v>
+        <v>85109.87</v>
       </c>
     </row>
     <row r="534">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>84431.3</v>
+        <v>84376.06</v>
       </c>
     </row>
     <row r="546">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>84545.71000000001</v>
+        <v>84554.09</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>84659.00999999999</v>
+        <v>84696.41</v>
       </c>
     </row>
     <row r="555">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>84669.32000000001</v>
+        <v>84703.53</v>
       </c>
     </row>
     <row r="573">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>83729.32000000001</v>
+        <v>83737.62</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>83599.56</v>
+        <v>83581.59</v>
       </c>
     </row>
     <row r="585">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>83401.62</v>
+        <v>83386.55</v>
       </c>
     </row>
     <row r="590">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>83014.34</v>
+        <v>83038.41</v>
       </c>
     </row>
     <row r="592">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>82035.78</v>
+        <v>81986.05</v>
       </c>
     </row>
     <row r="604">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>82674.91</v>
+        <v>82658.25</v>
       </c>
     </row>
     <row r="624">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>83057.17</v>
+        <v>83069.75</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>82590.45</v>
+        <v>82575.49000000001</v>
       </c>
     </row>
     <row r="630">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>82782.63</v>
+        <v>82766.91</v>
       </c>
     </row>
     <row r="634">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>83173.12</v>
+        <v>83166.5</v>
       </c>
     </row>
     <row r="638">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>82783.46000000001</v>
+        <v>82819.55</v>
       </c>
     </row>
     <row r="652">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>82693.91</v>
+        <v>82576.74000000001</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>83237.77</v>
+        <v>83222.78999999999</v>
       </c>
     </row>
     <row r="657">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>84184.05</v>
+        <v>84215.49000000001</v>
       </c>
     </row>
     <row r="670">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>84029.25</v>
+        <v>84027.66</v>
       </c>
     </row>
     <row r="672">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>83950.75</v>
+        <v>83954.17999999999</v>
       </c>
     </row>
     <row r="678">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>83937.61</v>
+        <v>83923.27</v>
       </c>
     </row>
     <row r="680">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>83813.21000000001</v>
+        <v>83808.34</v>
       </c>
     </row>
     <row r="685">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>83446.75999999999</v>
+        <v>83412.44</v>
       </c>
     </row>
     <row r="688">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>83369.03999999999</v>
+        <v>83370.27</v>
       </c>
     </row>
     <row r="691">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>83675.25</v>
+        <v>83688.32000000001</v>
       </c>
     </row>
     <row r="693">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>82853.05</v>
+        <v>82852.5</v>
       </c>
     </row>
     <row r="703">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>82566.14</v>
+        <v>82565.72</v>
       </c>
     </row>
     <row r="706">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>82787</v>
+        <v>82776.66</v>
       </c>
     </row>
     <row r="714">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>83149.06</v>
+        <v>83135.7</v>
       </c>
     </row>
     <row r="720">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>83506.89999999999</v>
+        <v>83511.62</v>
       </c>
     </row>
     <row r="723">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>83565.52</v>
+        <v>83600.39999999999</v>
       </c>
     </row>
     <row r="725">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>83411.13</v>
+        <v>83415.25</v>
       </c>
     </row>
     <row r="726">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>83125.67</v>
+        <v>83155.45</v>
       </c>
     </row>
     <row r="736">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>82996.96000000001</v>
+        <v>83011.2</v>
       </c>
     </row>
     <row r="738">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>82772.24000000001</v>
+        <v>82781.50999999999</v>
       </c>
     </row>
     <row r="743">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>82555.71000000001</v>
+        <v>82512.78999999999</v>
       </c>
     </row>
     <row r="752">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>78934.62</v>
+        <v>78977.82000000001</v>
       </c>
     </row>
     <row r="760">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>78802.14999999999</v>
+        <v>78810</v>
       </c>
     </row>
     <row r="764">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>78955.62</v>
+        <v>78843.72</v>
       </c>
     </row>
     <row r="767">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>77483.55</v>
+        <v>77450.86</v>
       </c>
     </row>
     <row r="769">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>79159.7</v>
+        <v>79068.2</v>
       </c>
     </row>
     <row r="774">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>78381.87</v>
+        <v>78382.2</v>
       </c>
     </row>
     <row r="776">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>77584.98</v>
+        <v>77577.7</v>
       </c>
     </row>
     <row r="778">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>77073.13</v>
+        <v>77082.8</v>
       </c>
     </row>
     <row r="791">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>78982.77</v>
+        <v>78970.84</v>
       </c>
     </row>
     <row r="800">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>78540.28</v>
+        <v>78683.60000000001</v>
       </c>
     </row>
     <row r="802">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>78801.33</v>
+        <v>78813.86</v>
       </c>
     </row>
     <row r="812">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>78990.57000000001</v>
+        <v>79061.53</v>
       </c>
     </row>
     <row r="820">
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>79911.47</v>
+        <v>79891.25</v>
       </c>
     </row>
     <row r="824">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>79598.23</v>
+        <v>79611.97</v>
       </c>
     </row>
     <row r="829">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>79820.36</v>
+        <v>79817.75999999999</v>
       </c>
     </row>
     <row r="830">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>78970.7</v>
+        <v>78971.87</v>
       </c>
     </row>
     <row r="835">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>78966.89</v>
+        <v>78961.67999999999</v>
       </c>
     </row>
     <row r="840">
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>79980.86</v>
+        <v>79869.57000000001</v>
       </c>
     </row>
     <row r="842">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="B863" t="n">
-        <v>76697.05</v>
+        <v>76719.98</v>
       </c>
     </row>
     <row r="864">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B892" t="n">
-        <v>76758.78999999999</v>
+        <v>76776.94</v>
       </c>
     </row>
     <row r="893">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B894" t="n">
-        <v>77432.52</v>
+        <v>77421.38</v>
       </c>
     </row>
     <row r="895">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="B915" t="n">
-        <v>82318.63</v>
+        <v>82276.57000000001</v>
       </c>
     </row>
     <row r="916">
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="B931" t="n">
-        <v>81499.44</v>
+        <v>81478.48</v>
       </c>
     </row>
     <row r="932">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>79691.67</v>
+        <v>79704.34</v>
       </c>
     </row>
     <row r="951">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="B957" t="n">
-        <v>79672.05</v>
+        <v>79675.05</v>
       </c>
     </row>
     <row r="958">
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="B987" t="n">
-        <v>82004.32000000001</v>
+        <v>82000.7</v>
       </c>
     </row>
     <row r="988">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="B998" t="n">
-        <v>83915.55</v>
+        <v>83862.38</v>
       </c>
     </row>
     <row r="999">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="B1016" t="n">
-        <v>82991.3</v>
+        <v>83003.74000000001</v>
       </c>
     </row>
     <row r="1017">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B1028" t="n">
-        <v>83438.7</v>
+        <v>83438.34</v>
       </c>
     </row>
     <row r="1029">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="B1038" t="n">
-        <v>84798.24000000001</v>
+        <v>84799.16</v>
       </c>
     </row>
     <row r="1039">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="B1047" t="n">
-        <v>85144.72</v>
+        <v>85150.95</v>
       </c>
     </row>
     <row r="1048">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="B1056" t="n">
-        <v>85200.46000000001</v>
+        <v>85189.57000000001</v>
       </c>
     </row>
     <row r="1057">
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="B1079" t="n">
-        <v>84667.48</v>
+        <v>84670.08</v>
       </c>
     </row>
     <row r="1080">
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="B1082" t="n">
-        <v>84262.72</v>
+        <v>84287.56</v>
       </c>
     </row>
     <row r="1083">
@@ -11672,7 +11672,7 @@
         </is>
       </c>
       <c r="B1124" t="n">
-        <v>84516.36</v>
+        <v>84485.25999999999</v>
       </c>
     </row>
     <row r="1125">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="B1129" t="n">
-        <v>84902.25</v>
+        <v>84869.34</v>
       </c>
     </row>
     <row r="1130">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="B1133" t="n">
-        <v>84460.98</v>
+        <v>84463.19</v>
       </c>
     </row>
     <row r="1134">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="B1141" t="n">
-        <v>84874.98</v>
+        <v>84820.33</v>
       </c>
     </row>
     <row r="1142">
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="B1364" t="n">
-        <v>85379.88</v>
+        <v>85382.31</v>
       </c>
     </row>
     <row r="1365">
@@ -20322,7 +20322,7 @@
         </is>
       </c>
       <c r="B1989" t="n">
-        <v>96660.8</v>
+        <v>96671.78</v>
       </c>
     </row>
     <row r="1990">
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="B2013" t="n">
-        <v>96804.67</v>
+        <v>96628.38</v>
       </c>
     </row>
     <row r="2014">
@@ -25162,7 +25162,7 @@
         </is>
       </c>
       <c r="B2473" t="n">
-        <v>103747.55</v>
+        <v>103752.06</v>
       </c>
     </row>
     <row r="2474">
@@ -25642,7 +25642,7 @@
         </is>
       </c>
       <c r="B2521" t="n">
-        <v>103687.08</v>
+        <v>103705.94</v>
       </c>
     </row>
     <row r="2522">
@@ -27392,7 +27392,7 @@
         </is>
       </c>
       <c r="B2696" t="n">
-        <v>103217.06</v>
+        <v>103235.99</v>
       </c>
     </row>
     <row r="2697">
@@ -28342,7 +28342,7 @@
         </is>
       </c>
       <c r="B2791" t="n">
-        <v>104627.81</v>
+        <v>104639.44</v>
       </c>
     </row>
     <row r="2792">
@@ -29072,7 +29072,7 @@
         </is>
       </c>
       <c r="B2864" t="n">
-        <v>104806.92</v>
+        <v>104820.82</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2864"/>
+  <dimension ref="A1:B2865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29072,7 +29072,17 @@
         </is>
       </c>
       <c r="B2864" t="n">
-        <v>104820.82</v>
+        <v>105001.16</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:30</t>
+        </is>
+      </c>
+      <c r="B2865" t="n">
+        <v>105208.41</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2839"/>
+  <dimension ref="A1:B2841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28822,7 +28822,27 @@
         </is>
       </c>
       <c r="B2839" t="n">
-        <v>106711.77</v>
+        <v>106899.94</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>2025-05-21 03:00</t>
+        </is>
+      </c>
+      <c r="B2840" t="n">
+        <v>107026.17</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>2025-05-21 03:30</t>
+        </is>
+      </c>
+      <c r="B2841" t="n">
+        <v>107073.7</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2842"/>
+  <dimension ref="A1:B2843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28852,7 +28852,17 @@
         </is>
       </c>
       <c r="B2842" t="n">
-        <v>106836.99</v>
+        <v>106852.78</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>2025-05-21 04:30</t>
+        </is>
+      </c>
+      <c r="B2843" t="n">
+        <v>106854.35</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83996.59</v>
+        <v>84001.81</v>
       </c>
     </row>
     <row r="4">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85014.39</v>
+        <v>85016.38</v>
       </c>
     </row>
     <row r="42">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>86129.77</v>
+        <v>86008.27</v>
       </c>
     </row>
     <row r="52">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>85920.72</v>
+        <v>85956.24000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>87684.48</v>
+        <v>87699.48</v>
       </c>
     </row>
     <row r="74">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>87392.25</v>
+        <v>87398.42999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>86741.47</v>
+        <v>86696.52</v>
       </c>
     </row>
     <row r="110">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>87660.52</v>
+        <v>87625.77</v>
       </c>
     </row>
     <row r="126">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>87611.24000000001</v>
+        <v>87597.96000000001</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>87686.05</v>
+        <v>87677.73</v>
       </c>
     </row>
     <row r="148">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>87915.58</v>
+        <v>87921.60000000001</v>
       </c>
     </row>
     <row r="160">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>87957.48</v>
+        <v>87992.78</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>87988.7</v>
+        <v>87997.11</v>
       </c>
     </row>
     <row r="165">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>86772.38</v>
+        <v>86828.59</v>
       </c>
     </row>
     <row r="176">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>87421.8</v>
+        <v>87433.00999999999</v>
       </c>
     </row>
     <row r="205">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>87395.34</v>
+        <v>87408.37</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>87443.08</v>
+        <v>87444.66</v>
       </c>
     </row>
     <row r="212">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>86747.02</v>
+        <v>86730.03</v>
       </c>
     </row>
     <row r="251">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>85208.87</v>
+        <v>85212.05</v>
       </c>
     </row>
     <row r="260">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>83688.98</v>
+        <v>83668.3</v>
       </c>
     </row>
     <row r="303">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>82508.16</v>
+        <v>82479.49000000001</v>
       </c>
     </row>
     <row r="319">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>82394.21000000001</v>
+        <v>82395.05</v>
       </c>
     </row>
     <row r="335">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>82455.46000000001</v>
+        <v>82441.77</v>
       </c>
     </row>
     <row r="337">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>83161.28</v>
+        <v>83164.94</v>
       </c>
     </row>
     <row r="349">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>82551.71000000001</v>
+        <v>82528.14</v>
       </c>
     </row>
     <row r="378">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>82234.74000000001</v>
+        <v>82247.3</v>
       </c>
     </row>
     <row r="397">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>83729.82000000001</v>
+        <v>83719.77</v>
       </c>
     </row>
     <row r="417">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>82729.67</v>
+        <v>82683.5</v>
       </c>
     </row>
     <row r="435">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>85109.87</v>
+        <v>85159.95</v>
       </c>
     </row>
     <row r="486">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>84376.06</v>
+        <v>84431.3</v>
       </c>
     </row>
     <row r="498">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>84554.09</v>
+        <v>84545.71000000001</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>84696.41</v>
+        <v>84659.00999999999</v>
       </c>
     </row>
     <row r="507">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>84703.53</v>
+        <v>84669.32000000001</v>
       </c>
     </row>
     <row r="525">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>83737.62</v>
+        <v>83729.32000000001</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>83581.59</v>
+        <v>83599.56</v>
       </c>
     </row>
     <row r="537">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>83386.55</v>
+        <v>83401.62</v>
       </c>
     </row>
     <row r="542">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>83038.41</v>
+        <v>83014.34</v>
       </c>
     </row>
     <row r="544">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>81986.05</v>
+        <v>82035.78</v>
       </c>
     </row>
     <row r="556">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>82658.25</v>
+        <v>82674.91</v>
       </c>
     </row>
     <row r="576">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>83069.75</v>
+        <v>83057.17</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>82575.49000000001</v>
+        <v>82590.45</v>
       </c>
     </row>
     <row r="582">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>82766.91</v>
+        <v>82782.63</v>
       </c>
     </row>
     <row r="586">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>83166.5</v>
+        <v>83173.12</v>
       </c>
     </row>
     <row r="590">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>82819.55</v>
+        <v>82783.46000000001</v>
       </c>
     </row>
     <row r="604">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>82576.74000000001</v>
+        <v>82693.91</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>83222.78999999999</v>
+        <v>83237.77</v>
       </c>
     </row>
     <row r="609">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>84215.49000000001</v>
+        <v>84184.05</v>
       </c>
     </row>
     <row r="622">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>84027.66</v>
+        <v>84029.25</v>
       </c>
     </row>
     <row r="624">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>83954.17999999999</v>
+        <v>83950.75</v>
       </c>
     </row>
     <row r="630">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>83923.27</v>
+        <v>83937.61</v>
       </c>
     </row>
     <row r="632">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>83808.34</v>
+        <v>83813.21000000001</v>
       </c>
     </row>
     <row r="637">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>83412.44</v>
+        <v>83446.75999999999</v>
       </c>
     </row>
     <row r="640">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>83370.27</v>
+        <v>83369.03999999999</v>
       </c>
     </row>
     <row r="643">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>83688.32000000001</v>
+        <v>83675.25</v>
       </c>
     </row>
     <row r="645">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>82852.5</v>
+        <v>82853.05</v>
       </c>
     </row>
     <row r="655">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>82565.72</v>
+        <v>82566.14</v>
       </c>
     </row>
     <row r="658">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>82776.66</v>
+        <v>82787</v>
       </c>
     </row>
     <row r="666">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>83135.7</v>
+        <v>83149.06</v>
       </c>
     </row>
     <row r="672">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>83511.62</v>
+        <v>83506.89999999999</v>
       </c>
     </row>
     <row r="675">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>83600.39999999999</v>
+        <v>83565.52</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>83415.25</v>
+        <v>83411.13</v>
       </c>
     </row>
     <row r="678">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>83155.45</v>
+        <v>83125.67</v>
       </c>
     </row>
     <row r="688">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>83011.2</v>
+        <v>82996.96000000001</v>
       </c>
     </row>
     <row r="690">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>82781.50999999999</v>
+        <v>82772.24000000001</v>
       </c>
     </row>
     <row r="695">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>82512.78999999999</v>
+        <v>82555.71000000001</v>
       </c>
     </row>
     <row r="704">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>78977.82000000001</v>
+        <v>78934.62</v>
       </c>
     </row>
     <row r="712">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>78810</v>
+        <v>78802.14999999999</v>
       </c>
     </row>
     <row r="716">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>78843.72</v>
+        <v>78955.62</v>
       </c>
     </row>
     <row r="719">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>77450.86</v>
+        <v>77483.55</v>
       </c>
     </row>
     <row r="721">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>79068.2</v>
+        <v>79159.7</v>
       </c>
     </row>
     <row r="726">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>78382.2</v>
+        <v>78381.87</v>
       </c>
     </row>
     <row r="728">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>77577.7</v>
+        <v>77584.98</v>
       </c>
     </row>
     <row r="730">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>77082.8</v>
+        <v>77073.13</v>
       </c>
     </row>
     <row r="743">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>78970.84</v>
+        <v>78982.77</v>
       </c>
     </row>
     <row r="752">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>78683.60000000001</v>
+        <v>78540.28</v>
       </c>
     </row>
     <row r="754">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>78813.86</v>
+        <v>78801.33</v>
       </c>
     </row>
     <row r="764">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>79061.53</v>
+        <v>78990.57000000001</v>
       </c>
     </row>
     <row r="772">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>79891.25</v>
+        <v>79911.47</v>
       </c>
     </row>
     <row r="776">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>79611.97</v>
+        <v>79598.23</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>79817.75999999999</v>
+        <v>79820.36</v>
       </c>
     </row>
     <row r="782">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>78971.87</v>
+        <v>78970.7</v>
       </c>
     </row>
     <row r="787">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>78961.67999999999</v>
+        <v>78966.89</v>
       </c>
     </row>
     <row r="792">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>79869.57000000001</v>
+        <v>79980.86</v>
       </c>
     </row>
     <row r="794">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>76719.98</v>
+        <v>76697.05</v>
       </c>
     </row>
     <row r="816">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>76776.94</v>
+        <v>76758.78999999999</v>
       </c>
     </row>
     <row r="845">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>77421.38</v>
+        <v>77432.52</v>
       </c>
     </row>
     <row r="847">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="n">
-        <v>82276.57000000001</v>
+        <v>82318.63</v>
       </c>
     </row>
     <row r="868">
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B883" t="n">
-        <v>81478.48</v>
+        <v>81499.44</v>
       </c>
     </row>
     <row r="884">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B902" t="n">
-        <v>79704.34</v>
+        <v>79691.67</v>
       </c>
     </row>
     <row r="903">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="B909" t="n">
-        <v>79675.05</v>
+        <v>79672.05</v>
       </c>
     </row>
     <row r="910">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="B939" t="n">
-        <v>82000.7</v>
+        <v>82004.32000000001</v>
       </c>
     </row>
     <row r="940">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>83862.38</v>
+        <v>83915.55</v>
       </c>
     </row>
     <row r="951">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>83003.74000000001</v>
+        <v>82991.3</v>
       </c>
     </row>
     <row r="969">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="B980" t="n">
-        <v>83438.34</v>
+        <v>83438.7</v>
       </c>
     </row>
     <row r="981">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="B990" t="n">
-        <v>84799.16</v>
+        <v>84798.24000000001</v>
       </c>
     </row>
     <row r="991">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="B999" t="n">
-        <v>85150.95</v>
+        <v>85144.72</v>
       </c>
     </row>
     <row r="1000">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>85189.57000000001</v>
+        <v>85200.46000000001</v>
       </c>
     </row>
     <row r="1009">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="B1031" t="n">
-        <v>84670.08</v>
+        <v>84667.48</v>
       </c>
     </row>
     <row r="1032">
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="B1034" t="n">
-        <v>84287.56</v>
+        <v>84262.72</v>
       </c>
     </row>
     <row r="1035">
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="B1076" t="n">
-        <v>84485.25999999999</v>
+        <v>84516.36</v>
       </c>
     </row>
     <row r="1077">
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>84869.34</v>
+        <v>84902.25</v>
       </c>
     </row>
     <row r="1082">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="B1085" t="n">
-        <v>84463.19</v>
+        <v>84460.98</v>
       </c>
     </row>
     <row r="1086">
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="B1093" t="n">
-        <v>84820.33</v>
+        <v>84874.98</v>
       </c>
     </row>
     <row r="1094">
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="B1316" t="n">
-        <v>85382.31</v>
+        <v>85379.88</v>
       </c>
     </row>
     <row r="1317">
@@ -19842,7 +19842,7 @@
         </is>
       </c>
       <c r="B1941" t="n">
-        <v>96671.78</v>
+        <v>96660.8</v>
       </c>
     </row>
     <row r="1942">
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="B1965" t="n">
-        <v>96628.38</v>
+        <v>96804.67</v>
       </c>
     </row>
     <row r="1966">
@@ -24682,7 +24682,7 @@
         </is>
       </c>
       <c r="B2425" t="n">
-        <v>103752.06</v>
+        <v>103747.55</v>
       </c>
     </row>
     <row r="2426">
@@ -25162,7 +25162,7 @@
         </is>
       </c>
       <c r="B2473" t="n">
-        <v>103705.94</v>
+        <v>103687.08</v>
       </c>
     </row>
     <row r="2474">
@@ -26912,7 +26912,7 @@
         </is>
       </c>
       <c r="B2648" t="n">
-        <v>103235.99</v>
+        <v>103217.06</v>
       </c>
     </row>
     <row r="2649">
@@ -27862,7 +27862,7 @@
         </is>
       </c>
       <c r="B2743" t="n">
-        <v>104639.44</v>
+        <v>104627.81</v>
       </c>
     </row>
     <row r="2744">
@@ -28662,7 +28662,7 @@
         </is>
       </c>
       <c r="B2823" t="n">
-        <v>105362.58</v>
+        <v>105297.04</v>
       </c>
     </row>
     <row r="2824">
@@ -28742,7 +28742,7 @@
         </is>
       </c>
       <c r="B2831" t="n">
-        <v>106825.12</v>
+        <v>106836.06</v>
       </c>
     </row>
     <row r="2832">
@@ -28982,7 +28982,7 @@
         </is>
       </c>
       <c r="B2855" t="n">
-        <v>106396.71</v>
+        <v>106355.38</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2855"/>
+  <dimension ref="A1:B2856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84001.81</v>
+        <v>83996.59</v>
       </c>
     </row>
     <row r="4">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85016.38</v>
+        <v>85014.39</v>
       </c>
     </row>
     <row r="42">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>86008.27</v>
+        <v>86129.77</v>
       </c>
     </row>
     <row r="52">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>85956.24000000001</v>
+        <v>85920.72</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>87699.48</v>
+        <v>87684.48</v>
       </c>
     </row>
     <row r="74">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>87398.42999999999</v>
+        <v>87392.25</v>
       </c>
     </row>
     <row r="96">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>86696.52</v>
+        <v>86741.47</v>
       </c>
     </row>
     <row r="110">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>87625.77</v>
+        <v>87660.52</v>
       </c>
     </row>
     <row r="126">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>87597.96000000001</v>
+        <v>87611.24000000001</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>87677.73</v>
+        <v>87686.05</v>
       </c>
     </row>
     <row r="148">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>87921.60000000001</v>
+        <v>87915.58</v>
       </c>
     </row>
     <row r="160">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>87992.78</v>
+        <v>87957.48</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>87997.11</v>
+        <v>87988.7</v>
       </c>
     </row>
     <row r="165">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>86828.59</v>
+        <v>86772.38</v>
       </c>
     </row>
     <row r="176">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>87433.00999999999</v>
+        <v>87421.8</v>
       </c>
     </row>
     <row r="205">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>87408.37</v>
+        <v>87395.34</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>87444.66</v>
+        <v>87443.08</v>
       </c>
     </row>
     <row r="212">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>86730.03</v>
+        <v>86747.02</v>
       </c>
     </row>
     <row r="251">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>85212.05</v>
+        <v>85208.87</v>
       </c>
     </row>
     <row r="260">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>83668.3</v>
+        <v>83688.98</v>
       </c>
     </row>
     <row r="303">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>82479.49000000001</v>
+        <v>82508.16</v>
       </c>
     </row>
     <row r="319">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>82395.05</v>
+        <v>82394.21000000001</v>
       </c>
     </row>
     <row r="335">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>82441.77</v>
+        <v>82455.46000000001</v>
       </c>
     </row>
     <row r="337">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>83164.94</v>
+        <v>83161.28</v>
       </c>
     </row>
     <row r="349">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>82528.14</v>
+        <v>82551.71000000001</v>
       </c>
     </row>
     <row r="378">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>82247.3</v>
+        <v>82234.74000000001</v>
       </c>
     </row>
     <row r="397">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>83719.77</v>
+        <v>83729.82000000001</v>
       </c>
     </row>
     <row r="417">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>82683.5</v>
+        <v>82729.67</v>
       </c>
     </row>
     <row r="435">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>85159.95</v>
+        <v>85109.87</v>
       </c>
     </row>
     <row r="486">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>84431.3</v>
+        <v>84376.06</v>
       </c>
     </row>
     <row r="498">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>84545.71000000001</v>
+        <v>84554.09</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>84659.00999999999</v>
+        <v>84696.41</v>
       </c>
     </row>
     <row r="507">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>84669.32000000001</v>
+        <v>84703.53</v>
       </c>
     </row>
     <row r="525">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>83729.32000000001</v>
+        <v>83737.62</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>83599.56</v>
+        <v>83581.59</v>
       </c>
     </row>
     <row r="537">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>83401.62</v>
+        <v>83386.55</v>
       </c>
     </row>
     <row r="542">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>83014.34</v>
+        <v>83038.41</v>
       </c>
     </row>
     <row r="544">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>82035.78</v>
+        <v>81986.05</v>
       </c>
     </row>
     <row r="556">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>82674.91</v>
+        <v>82658.25</v>
       </c>
     </row>
     <row r="576">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>83057.17</v>
+        <v>83069.75</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>82590.45</v>
+        <v>82575.49000000001</v>
       </c>
     </row>
     <row r="582">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>82782.63</v>
+        <v>82766.91</v>
       </c>
     </row>
     <row r="586">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>83173.12</v>
+        <v>83166.5</v>
       </c>
     </row>
     <row r="590">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>82783.46000000001</v>
+        <v>82819.55</v>
       </c>
     </row>
     <row r="604">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>82693.91</v>
+        <v>82576.74000000001</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>83237.77</v>
+        <v>83222.78999999999</v>
       </c>
     </row>
     <row r="609">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>84184.05</v>
+        <v>84215.49000000001</v>
       </c>
     </row>
     <row r="622">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>84029.25</v>
+        <v>84027.66</v>
       </c>
     </row>
     <row r="624">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>83950.75</v>
+        <v>83954.17999999999</v>
       </c>
     </row>
     <row r="630">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>83937.61</v>
+        <v>83923.27</v>
       </c>
     </row>
     <row r="632">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>83813.21000000001</v>
+        <v>83808.34</v>
       </c>
     </row>
     <row r="637">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>83446.75999999999</v>
+        <v>83412.44</v>
       </c>
     </row>
     <row r="640">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>83369.03999999999</v>
+        <v>83370.27</v>
       </c>
     </row>
     <row r="643">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>83675.25</v>
+        <v>83688.32000000001</v>
       </c>
     </row>
     <row r="645">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>82853.05</v>
+        <v>82852.5</v>
       </c>
     </row>
     <row r="655">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>82566.14</v>
+        <v>82565.72</v>
       </c>
     </row>
     <row r="658">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>82787</v>
+        <v>82776.66</v>
       </c>
     </row>
     <row r="666">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>83149.06</v>
+        <v>83135.7</v>
       </c>
     </row>
     <row r="672">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>83506.89999999999</v>
+        <v>83511.62</v>
       </c>
     </row>
     <row r="675">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>83565.52</v>
+        <v>83600.39999999999</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>83411.13</v>
+        <v>83415.25</v>
       </c>
     </row>
     <row r="678">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>83125.67</v>
+        <v>83155.45</v>
       </c>
     </row>
     <row r="688">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>82996.96000000001</v>
+        <v>83011.2</v>
       </c>
     </row>
     <row r="690">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>82772.24000000001</v>
+        <v>82781.50999999999</v>
       </c>
     </row>
     <row r="695">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>82555.71000000001</v>
+        <v>82512.78999999999</v>
       </c>
     </row>
     <row r="704">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>78934.62</v>
+        <v>78977.82000000001</v>
       </c>
     </row>
     <row r="712">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>78802.14999999999</v>
+        <v>78810</v>
       </c>
     </row>
     <row r="716">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>78955.62</v>
+        <v>78843.72</v>
       </c>
     </row>
     <row r="719">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>77483.55</v>
+        <v>77450.86</v>
       </c>
     </row>
     <row r="721">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>79159.7</v>
+        <v>79068.2</v>
       </c>
     </row>
     <row r="726">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>78381.87</v>
+        <v>78382.2</v>
       </c>
     </row>
     <row r="728">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>77584.98</v>
+        <v>77577.7</v>
       </c>
     </row>
     <row r="730">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>77073.13</v>
+        <v>77082.8</v>
       </c>
     </row>
     <row r="743">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>78982.77</v>
+        <v>78970.84</v>
       </c>
     </row>
     <row r="752">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>78540.28</v>
+        <v>78683.60000000001</v>
       </c>
     </row>
     <row r="754">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>78801.33</v>
+        <v>78813.86</v>
       </c>
     </row>
     <row r="764">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>78990.57000000001</v>
+        <v>79061.53</v>
       </c>
     </row>
     <row r="772">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>79911.47</v>
+        <v>79891.25</v>
       </c>
     </row>
     <row r="776">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>79598.23</v>
+        <v>79611.97</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>79820.36</v>
+        <v>79817.75999999999</v>
       </c>
     </row>
     <row r="782">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>78970.7</v>
+        <v>78971.87</v>
       </c>
     </row>
     <row r="787">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>78966.89</v>
+        <v>78961.67999999999</v>
       </c>
     </row>
     <row r="792">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>79980.86</v>
+        <v>79869.57000000001</v>
       </c>
     </row>
     <row r="794">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>76697.05</v>
+        <v>76719.98</v>
       </c>
     </row>
     <row r="816">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>76758.78999999999</v>
+        <v>76776.94</v>
       </c>
     </row>
     <row r="845">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>77432.52</v>
+        <v>77421.38</v>
       </c>
     </row>
     <row r="847">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="n">
-        <v>82318.63</v>
+        <v>82276.57000000001</v>
       </c>
     </row>
     <row r="868">
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B883" t="n">
-        <v>81499.44</v>
+        <v>81478.48</v>
       </c>
     </row>
     <row r="884">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B902" t="n">
-        <v>79691.67</v>
+        <v>79704.34</v>
       </c>
     </row>
     <row r="903">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="B909" t="n">
-        <v>79672.05</v>
+        <v>79675.05</v>
       </c>
     </row>
     <row r="910">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="B939" t="n">
-        <v>82004.32000000001</v>
+        <v>82000.7</v>
       </c>
     </row>
     <row r="940">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>83915.55</v>
+        <v>83862.38</v>
       </c>
     </row>
     <row r="951">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>82991.3</v>
+        <v>83003.74000000001</v>
       </c>
     </row>
     <row r="969">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="B980" t="n">
-        <v>83438.7</v>
+        <v>83438.34</v>
       </c>
     </row>
     <row r="981">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="B990" t="n">
-        <v>84798.24000000001</v>
+        <v>84799.16</v>
       </c>
     </row>
     <row r="991">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="B999" t="n">
-        <v>85144.72</v>
+        <v>85150.95</v>
       </c>
     </row>
     <row r="1000">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>85200.46000000001</v>
+        <v>85189.57000000001</v>
       </c>
     </row>
     <row r="1009">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="B1031" t="n">
-        <v>84667.48</v>
+        <v>84670.08</v>
       </c>
     </row>
     <row r="1032">
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="B1034" t="n">
-        <v>84262.72</v>
+        <v>84287.56</v>
       </c>
     </row>
     <row r="1035">
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="B1076" t="n">
-        <v>84516.36</v>
+        <v>84485.25999999999</v>
       </c>
     </row>
     <row r="1077">
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>84902.25</v>
+        <v>84869.34</v>
       </c>
     </row>
     <row r="1082">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="B1085" t="n">
-        <v>84460.98</v>
+        <v>84463.19</v>
       </c>
     </row>
     <row r="1086">
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="B1093" t="n">
-        <v>84874.98</v>
+        <v>84820.33</v>
       </c>
     </row>
     <row r="1094">
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="B1316" t="n">
-        <v>85379.88</v>
+        <v>85382.31</v>
       </c>
     </row>
     <row r="1317">
@@ -19842,7 +19842,7 @@
         </is>
       </c>
       <c r="B1941" t="n">
-        <v>96660.8</v>
+        <v>96671.78</v>
       </c>
     </row>
     <row r="1942">
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="B1965" t="n">
-        <v>96804.67</v>
+        <v>96628.38</v>
       </c>
     </row>
     <row r="1966">
@@ -24682,7 +24682,7 @@
         </is>
       </c>
       <c r="B2425" t="n">
-        <v>103747.55</v>
+        <v>103752.06</v>
       </c>
     </row>
     <row r="2426">
@@ -25162,7 +25162,7 @@
         </is>
       </c>
       <c r="B2473" t="n">
-        <v>103687.08</v>
+        <v>103705.94</v>
       </c>
     </row>
     <row r="2474">
@@ -26912,7 +26912,7 @@
         </is>
       </c>
       <c r="B2648" t="n">
-        <v>103217.06</v>
+        <v>103235.99</v>
       </c>
     </row>
     <row r="2649">
@@ -27862,7 +27862,7 @@
         </is>
       </c>
       <c r="B2743" t="n">
-        <v>104627.81</v>
+        <v>104639.44</v>
       </c>
     </row>
     <row r="2744">
@@ -28662,7 +28662,7 @@
         </is>
       </c>
       <c r="B2823" t="n">
-        <v>105297.04</v>
+        <v>105362.58</v>
       </c>
     </row>
     <row r="2824">
@@ -28742,7 +28742,7 @@
         </is>
       </c>
       <c r="B2831" t="n">
-        <v>106836.06</v>
+        <v>106825.12</v>
       </c>
     </row>
     <row r="2832">
@@ -28982,7 +28982,17 @@
         </is>
       </c>
       <c r="B2855" t="n">
-        <v>106355.38</v>
+        <v>106362.15</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:00</t>
+        </is>
+      </c>
+      <c r="B2856" t="n">
+        <v>106432.3</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2876"/>
+  <dimension ref="A1:B2877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29192,7 +29192,17 @@
         </is>
       </c>
       <c r="B2876" t="n">
-        <v>108385.27</v>
+        <v>108180.31</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>2025-05-21 21:30</t>
+        </is>
+      </c>
+      <c r="B2877" t="n">
+        <v>108130.66</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/bitcoin_close_30min.xlsx
+++ b/Uploads/bitcoin_close_30min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2860"/>
+  <dimension ref="A1:B2861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23321,6 +23321,14 @@
         <v>25569.00000000125</v>
       </c>
     </row>
+    <row r="2861">
+      <c r="A2861" s="2" t="n">
+        <v>45801.5625</v>
+      </c>
+      <c r="B2861" s="2" t="n">
+        <v>25569.00000000125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
